--- a/DATASET.xlsx
+++ b/DATASET.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="70">
-  <si>
-    <t>Time_Index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="68">
   <si>
     <t>Year</t>
   </si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>Chatra</t>
-  </si>
-  <si>
-    <t>Devghar</t>
   </si>
   <si>
     <t>Dhanbad</t>
@@ -683,9 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -709,67 +701,67 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -777,19 +769,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="13">
         <v>4</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="16">
         <v>14</v>
@@ -842,19 +834,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="16">
         <v>4</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="16">
         <v>11</v>
@@ -908,19 +900,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="16">
         <v>4</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="G4" s="16">
         <v>10</v>
@@ -974,19 +966,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="16">
         <v>17</v>
@@ -1039,19 +1031,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="16">
         <v>4</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="16">
         <v>8</v>
@@ -1104,19 +1096,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="16">
         <v>4</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="16">
         <v>8</v>
@@ -1169,19 +1161,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="16">
         <v>13</v>
@@ -1234,19 +1226,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="16">
         <v>4</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="16">
         <v>10</v>
@@ -1299,19 +1291,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="16">
         <v>4</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="16">
         <v>18</v>
@@ -1364,19 +1356,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="16">
         <v>4</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="16">
         <v>25</v>
@@ -1429,19 +1421,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E12" s="16">
         <v>4</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="16">
         <v>10</v>
@@ -1494,19 +1486,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="16">
         <v>4</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="16">
         <v>10</v>
@@ -1559,19 +1551,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E14" s="16">
         <v>4</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="16">
         <v>6</v>
@@ -1624,19 +1616,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E15" s="16">
         <v>4</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
@@ -1689,19 +1681,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E16" s="16">
         <v>4</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" s="16">
         <v>10</v>
@@ -1754,19 +1746,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E17" s="16">
         <v>4</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="16">
         <v>9</v>
@@ -1819,19 +1811,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E18" s="16">
         <v>4</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" s="16">
         <v>7</v>
@@ -1884,19 +1876,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E19" s="16">
         <v>4</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" s="16">
         <v>15</v>
@@ -1949,19 +1941,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E20" s="16">
         <v>4</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="16">
         <v>24</v>
@@ -2014,19 +2006,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E21" s="16">
         <v>4</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21" s="16">
         <v>17</v>
@@ -2079,19 +2071,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E22" s="16">
         <v>4</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" s="16">
         <v>53</v>
@@ -2144,19 +2136,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E23" s="16">
         <v>4</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23" s="16">
         <v>18</v>
@@ -2209,19 +2201,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E24" s="16">
         <v>4</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" s="16">
         <v>10</v>
@@ -2274,19 +2266,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E25" s="16">
         <v>4</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" s="16">
         <v>12</v>
@@ -2339,19 +2331,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="16">
         <v>7</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="16">
         <v>12</v>
@@ -2404,19 +2396,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="16">
         <v>7</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="16">
         <v>14</v>
@@ -2469,19 +2461,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="16">
         <v>7</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="G28" s="16">
         <v>10</v>
@@ -2534,19 +2526,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29" s="16">
         <v>7</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G29" s="16">
         <v>22</v>
@@ -2599,19 +2591,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="16">
         <v>7</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G30" s="16">
         <v>9</v>
@@ -2664,19 +2656,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="16">
         <v>7</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G31" s="16">
         <v>8</v>
@@ -2729,19 +2721,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E32" s="16">
         <v>7</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" s="16">
         <v>10</v>
@@ -2794,19 +2786,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="16">
         <v>7</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33" s="16">
         <v>9</v>
@@ -2859,19 +2851,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16">
         <v>7</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" s="16">
         <v>18</v>
@@ -2924,19 +2916,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35" s="16">
         <v>7</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35" s="16">
         <v>25</v>
@@ -2989,19 +2981,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="16">
         <v>7</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36" s="16">
         <v>10</v>
@@ -3054,19 +3046,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="16">
         <v>7</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G37" s="16">
         <v>13</v>
@@ -3119,19 +3111,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="16">
         <v>7</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38" s="16">
         <v>6</v>
@@ -3184,19 +3176,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" s="16">
         <v>7</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G39" s="16">
         <v>5</v>
@@ -3249,19 +3241,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E40" s="16">
         <v>7</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40" s="16">
         <v>10</v>
@@ -3314,19 +3306,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E41" s="16">
         <v>7</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41" s="16">
         <v>9</v>
@@ -3379,19 +3371,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E42" s="16">
         <v>7</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G42" s="16">
         <v>7</v>
@@ -3444,19 +3436,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43" s="16">
         <v>7</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G43" s="16">
         <v>15</v>
@@ -3509,19 +3501,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E44" s="16">
         <v>7</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G44" s="16">
         <v>25</v>
@@ -3574,19 +3566,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E45" s="16">
         <v>7</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G45" s="16">
         <v>18</v>
@@ -3639,19 +3631,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E46" s="16">
         <v>7</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G46" s="16">
         <v>53</v>
@@ -3704,19 +3696,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E47" s="16">
         <v>7</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G47" s="16">
         <v>18</v>
@@ -3769,19 +3761,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48" s="16">
         <v>7</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G48" s="16">
         <v>10</v>
@@ -3834,19 +3826,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="16">
         <v>7</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G49" s="16">
         <v>14</v>
@@ -3899,19 +3891,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E50" s="16">
         <v>9</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G50" s="16">
         <v>15</v>
@@ -3964,19 +3956,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E51" s="16">
         <v>9</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G51" s="16">
         <v>13</v>
@@ -4029,19 +4021,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E52" s="16">
         <v>9</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="G52" s="16">
         <v>10</v>
@@ -4094,19 +4086,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="16">
         <v>9</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G53" s="16">
         <v>21</v>
@@ -4159,19 +4151,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E54" s="16">
         <v>9</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G54" s="16">
         <v>9</v>
@@ -4224,19 +4216,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E55" s="16">
         <v>9</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G55" s="16">
         <v>8</v>
@@ -4289,19 +4281,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E56" s="16">
         <v>9</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G56" s="16">
         <v>12</v>
@@ -4354,19 +4346,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E57" s="16">
         <v>9</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G57" s="16">
         <v>8</v>
@@ -4419,19 +4411,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E58" s="16">
         <v>9</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58" s="16">
         <v>19</v>
@@ -4484,19 +4476,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E59" s="16">
         <v>9</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" s="16">
         <v>25</v>
@@ -4549,19 +4541,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E60" s="16">
         <v>9</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" s="16">
         <v>9</v>
@@ -4614,19 +4606,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E61" s="16">
         <v>9</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G61" s="16">
         <v>13</v>
@@ -4679,19 +4671,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E62" s="16">
         <v>9</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G62" s="16">
         <v>6</v>
@@ -4744,19 +4736,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E63" s="16">
         <v>9</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" s="16">
         <v>6</v>
@@ -4809,19 +4801,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E64" s="16">
         <v>9</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G64" s="16">
         <v>10</v>
@@ -4874,19 +4866,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E65" s="16">
         <v>9</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G65" s="16">
         <v>9</v>
@@ -4939,19 +4931,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E66" s="16">
         <v>9</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G66" s="16">
         <v>7</v>
@@ -5004,19 +4996,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E67" s="16">
         <v>9</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G67" s="16">
         <v>14</v>
@@ -5069,19 +5061,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E68" s="16">
         <v>9</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G68" s="16">
         <v>24</v>
@@ -5134,19 +5126,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E69" s="16">
         <v>9</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G69" s="16">
         <v>15</v>
@@ -5199,19 +5191,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E70" s="16">
         <v>9</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G70" s="16">
         <v>54</v>
@@ -5264,19 +5256,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E71" s="16">
         <v>9</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G71" s="16">
         <v>18</v>
@@ -5329,19 +5321,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E72" s="19">
         <v>9</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G72" s="19">
         <v>11</v>
@@ -5402,22 +5394,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5425,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6">
         <v>45444</v>
@@ -5445,7 +5437,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6">
         <v>45444</v>
@@ -5465,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6">
         <v>45444</v>
@@ -5485,7 +5477,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
         <v>45444</v>
@@ -5505,7 +5497,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="6">
         <v>45444</v>
@@ -5525,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6">
         <v>45444</v>
@@ -5545,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6">
         <v>45444</v>
@@ -5565,7 +5557,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6">
         <v>45444</v>
@@ -5585,7 +5577,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6">
         <v>45444</v>
@@ -5605,7 +5597,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6">
         <v>45444</v>
@@ -5625,7 +5617,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>45444</v>
@@ -5645,7 +5637,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6">
         <v>45444</v>
@@ -5665,7 +5657,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6">
         <v>45444</v>
@@ -5685,7 +5677,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
         <v>45444</v>
@@ -5705,7 +5697,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>45444</v>
@@ -5725,7 +5717,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6">
         <v>45444</v>
@@ -5745,7 +5737,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6">
         <v>45444</v>
@@ -5765,7 +5757,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6">
         <v>45444</v>
@@ -5785,7 +5777,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6">
         <v>45444</v>
@@ -5805,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6">
         <v>45444</v>
@@ -5825,7 +5817,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6">
         <v>45444</v>
@@ -5845,7 +5837,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6">
         <v>45444</v>
@@ -5865,7 +5857,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="6">
         <v>45444</v>
@@ -5885,7 +5877,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6">
         <v>45444</v>
@@ -5905,7 +5897,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6">
         <v>45505</v>
@@ -5925,7 +5917,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6">
         <v>45505</v>
@@ -5945,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6">
         <v>45505</v>
@@ -5965,7 +5957,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="6">
         <v>45505</v>
@@ -5985,7 +5977,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="6">
         <v>45505</v>
@@ -6005,7 +5997,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="6">
         <v>45505</v>
@@ -6025,7 +6017,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="6">
         <v>45505</v>
@@ -6045,7 +6037,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6">
         <v>45505</v>
@@ -6065,7 +6057,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="6">
         <v>45505</v>
@@ -6085,7 +6077,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="6">
         <v>45505</v>
@@ -6105,7 +6097,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6">
         <v>45505</v>
@@ -6125,7 +6117,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="6">
         <v>45505</v>
@@ -6145,7 +6137,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" s="6">
         <v>45505</v>
@@ -6165,7 +6157,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="6">
         <v>45505</v>
@@ -6185,7 +6177,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="6">
         <v>45505</v>
@@ -6205,7 +6197,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="6">
         <v>45505</v>
@@ -6225,7 +6217,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="6">
         <v>45505</v>
@@ -6245,7 +6237,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="6">
         <v>45505</v>
@@ -6265,7 +6257,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" s="6">
         <v>45505</v>
@@ -6285,7 +6277,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="6">
         <v>45505</v>
@@ -6305,7 +6297,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="6">
         <v>45505</v>
@@ -6325,7 +6317,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="6">
         <v>45505</v>
@@ -6345,7 +6337,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="6">
         <v>45505</v>
@@ -6365,7 +6357,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C49" s="6">
         <v>45505</v>
@@ -6385,7 +6377,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50" s="6">
         <v>45658</v>
@@ -6405,7 +6397,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="6">
         <v>45658</v>
@@ -6425,7 +6417,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="6">
         <v>45658</v>
@@ -6445,7 +6437,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="6">
         <v>45658</v>
@@ -6465,7 +6457,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="6">
         <v>45658</v>
@@ -6485,7 +6477,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" s="6">
         <v>45658</v>
@@ -6505,7 +6497,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="6">
         <v>45658</v>
@@ -6525,7 +6517,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C57" s="6">
         <v>45658</v>
@@ -6545,7 +6537,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C58" s="6">
         <v>45658</v>
@@ -6565,7 +6557,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="6">
         <v>45658</v>
@@ -6585,7 +6577,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C60" s="6">
         <v>45658</v>
@@ -6605,7 +6597,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="6">
         <v>45658</v>
@@ -6625,7 +6617,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62" s="6">
         <v>45658</v>
@@ -6645,7 +6637,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C63" s="6">
         <v>45658</v>
@@ -6665,7 +6657,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C64" s="6">
         <v>45658</v>
@@ -6685,7 +6677,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C65" s="6">
         <v>45658</v>
@@ -6705,7 +6697,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C66" s="6">
         <v>45658</v>
@@ -6725,7 +6717,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C67" s="6">
         <v>45658</v>
@@ -6745,7 +6737,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C68" s="6">
         <v>45658</v>
@@ -6765,7 +6757,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C69" s="6">
         <v>45658</v>
@@ -6785,7 +6777,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C70" s="6">
         <v>45658</v>
@@ -6805,7 +6797,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C71" s="6">
         <v>45658</v>
@@ -6825,7 +6817,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C72" s="6">
         <v>45658</v>
@@ -6845,7 +6837,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C73" s="6">
         <v>45658</v>
@@ -6865,7 +6857,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C74" s="6">
         <v>45689</v>
@@ -6885,7 +6877,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="6">
         <v>45689</v>
@@ -6905,7 +6897,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C76" s="6">
         <v>45689</v>
@@ -6925,7 +6917,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" s="6">
         <v>45689</v>
@@ -6945,7 +6937,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C78" s="6">
         <v>45689</v>
@@ -6965,7 +6957,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" s="6">
         <v>45689</v>
@@ -6985,7 +6977,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C80" s="6">
         <v>45689</v>
@@ -7005,7 +6997,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C81" s="6">
         <v>45689</v>
@@ -7025,7 +7017,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C82" s="6">
         <v>45689</v>
@@ -7045,7 +7037,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C83" s="6">
         <v>45689</v>
@@ -7065,7 +7057,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C84" s="6">
         <v>45689</v>
@@ -7085,7 +7077,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C85" s="6">
         <v>45689</v>
@@ -7105,7 +7097,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C86" s="6">
         <v>45689</v>
@@ -7125,7 +7117,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C87" s="6">
         <v>45689</v>
@@ -7145,7 +7137,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C88" s="6">
         <v>45689</v>
@@ -7165,7 +7157,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C89" s="6">
         <v>45689</v>
@@ -7185,7 +7177,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C90" s="6">
         <v>45689</v>
@@ -7205,7 +7197,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C91" s="6">
         <v>45689</v>
@@ -7225,7 +7217,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C92" s="6">
         <v>45689</v>
@@ -7245,7 +7237,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C93" s="6">
         <v>45689</v>
@@ -7265,7 +7257,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" s="6">
         <v>45689</v>
@@ -7285,7 +7277,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C95" s="6">
         <v>45689</v>
@@ -7305,7 +7297,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C96" s="6">
         <v>45689</v>
@@ -7325,7 +7317,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C97" s="6">
         <v>45689</v>
@@ -7345,7 +7337,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C98" s="6">
         <v>45717</v>
@@ -7365,7 +7357,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C99" s="6">
         <v>45717</v>
@@ -7385,7 +7377,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C100" s="6">
         <v>45717</v>
@@ -7405,7 +7397,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C101" s="6">
         <v>45717</v>
@@ -7425,7 +7417,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C102" s="6">
         <v>45717</v>
@@ -7445,7 +7437,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C103" s="6">
         <v>45717</v>
@@ -7465,7 +7457,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C104" s="6">
         <v>45717</v>
@@ -7485,7 +7477,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C105" s="6">
         <v>45717</v>
@@ -7505,7 +7497,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C106" s="6">
         <v>45717</v>
@@ -7525,7 +7517,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C107" s="6">
         <v>45717</v>
@@ -7545,7 +7537,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C108" s="6">
         <v>45717</v>
@@ -7565,7 +7557,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C109" s="6">
         <v>45717</v>
@@ -7585,7 +7577,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C110" s="6">
         <v>45717</v>
@@ -7605,7 +7597,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C111" s="6">
         <v>45717</v>
@@ -7625,7 +7617,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C112" s="6">
         <v>45717</v>
@@ -7645,7 +7637,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C113" s="6">
         <v>45717</v>
@@ -7665,7 +7657,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C114" s="6">
         <v>45717</v>
@@ -7685,7 +7677,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C115" s="6">
         <v>45717</v>
@@ -7705,7 +7697,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C116" s="6">
         <v>45717</v>
@@ -7725,7 +7717,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C117" s="6">
         <v>45717</v>
@@ -7745,7 +7737,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C118" s="6">
         <v>45717</v>
@@ -7765,7 +7757,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C119" s="6">
         <v>45717</v>
@@ -7785,7 +7777,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C120" s="6">
         <v>45717</v>
@@ -7805,7 +7797,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C121" s="6">
         <v>45717</v>
@@ -7825,7 +7817,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C122" s="6">
         <v>45778</v>
@@ -7845,7 +7837,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C123" s="6">
         <v>45778</v>
@@ -7865,7 +7857,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C124" s="6">
         <v>45778</v>
@@ -7885,7 +7877,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C125" s="6">
         <v>45778</v>
@@ -7905,7 +7897,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C126" s="6">
         <v>45778</v>
@@ -7925,7 +7917,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127" s="6">
         <v>45778</v>
@@ -7945,7 +7937,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C128" s="6">
         <v>45778</v>
@@ -7965,7 +7957,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C129" s="6">
         <v>45778</v>
@@ -7985,7 +7977,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C130" s="6">
         <v>45778</v>
@@ -8005,7 +7997,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C131" s="6">
         <v>45778</v>
@@ -8025,7 +8017,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C132" s="6">
         <v>45778</v>
@@ -8045,7 +8037,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C133" s="6">
         <v>45778</v>
@@ -8065,7 +8057,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C134" s="6">
         <v>45778</v>
@@ -8085,7 +8077,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C135" s="6">
         <v>45778</v>
@@ -8105,7 +8097,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C136" s="6">
         <v>45778</v>
@@ -8125,7 +8117,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C137" s="6">
         <v>45778</v>
@@ -8145,7 +8137,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C138" s="6">
         <v>45778</v>
@@ -8165,7 +8157,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C139" s="6">
         <v>45778</v>
@@ -8185,7 +8177,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C140" s="6">
         <v>45778</v>
@@ -8205,7 +8197,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C141" s="6">
         <v>45778</v>
@@ -8225,7 +8217,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C142" s="6">
         <v>45778</v>
@@ -8245,7 +8237,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C143" s="6">
         <v>45778</v>
@@ -8265,7 +8257,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C144" s="6">
         <v>45778</v>
@@ -8285,7 +8277,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C145" s="6">
         <v>45778</v>
@@ -8305,7 +8297,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C146" s="6">
         <v>45809</v>
@@ -8325,7 +8317,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C147" s="6">
         <v>45809</v>
@@ -8345,7 +8337,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C148" s="6">
         <v>45809</v>
@@ -8365,7 +8357,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C149" s="6">
         <v>45809</v>
@@ -8385,7 +8377,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C150" s="6">
         <v>45809</v>
@@ -8405,7 +8397,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C151" s="6">
         <v>45809</v>
@@ -8425,7 +8417,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C152" s="6">
         <v>45809</v>
@@ -8445,7 +8437,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C153" s="6">
         <v>45809</v>
@@ -8465,7 +8457,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C154" s="6">
         <v>45809</v>
@@ -8485,7 +8477,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C155" s="6">
         <v>45809</v>
@@ -8505,7 +8497,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C156" s="6">
         <v>45809</v>
@@ -8525,7 +8517,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C157" s="6">
         <v>45809</v>
@@ -8545,7 +8537,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C158" s="6">
         <v>45809</v>
@@ -8565,7 +8557,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C159" s="6">
         <v>45809</v>
@@ -8585,7 +8577,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C160" s="6">
         <v>45809</v>
@@ -8605,7 +8597,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C161" s="6">
         <v>45809</v>
@@ -8625,7 +8617,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C162" s="6">
         <v>45809</v>
@@ -8645,7 +8637,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C163" s="6">
         <v>45809</v>
@@ -8665,7 +8657,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C164" s="6">
         <v>45809</v>
@@ -8685,7 +8677,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C165" s="6">
         <v>45809</v>
@@ -8705,7 +8697,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C166" s="6">
         <v>45809</v>
@@ -8725,7 +8717,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C167" s="6">
         <v>45809</v>
@@ -8745,7 +8737,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C168" s="6">
         <v>45809</v>
@@ -8765,7 +8757,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C169" s="6">
         <v>45809</v>
@@ -8785,7 +8777,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C170" s="6">
         <v>45870</v>
@@ -8805,7 +8797,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C171" s="6">
         <v>45870</v>
@@ -8825,7 +8817,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C172" s="6">
         <v>45870</v>
@@ -8845,7 +8837,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C173" s="6">
         <v>45870</v>
@@ -8865,7 +8857,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C174" s="6">
         <v>45870</v>
@@ -8885,7 +8877,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C175" s="6">
         <v>45870</v>
@@ -8905,7 +8897,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C176" s="6">
         <v>45870</v>
@@ -8925,7 +8917,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C177" s="6">
         <v>45870</v>
@@ -8945,7 +8937,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C178" s="6">
         <v>45870</v>
@@ -8965,7 +8957,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C179" s="10">
         <v>45870</v>
@@ -8987,7 +8979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -9002,19 +8994,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9031,7 +9023,7 @@
         <v>-23</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9048,7 +9040,7 @@
         <v>-15</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9065,7 +9057,7 @@
         <v>-14</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9082,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9099,7 +9091,7 @@
         <v>-10</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9116,7 +9108,7 @@
         <v>-28</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9133,7 +9125,7 @@
         <v>-18</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9150,7 +9142,7 @@
         <v>-14</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9167,7 +9159,7 @@
         <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9184,7 +9176,7 @@
         <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9201,7 +9193,7 @@
         <v>-27</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9218,7 +9210,7 @@
         <v>-1</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
